--- a/output/1Y_P59_KFSDIV.xlsx
+++ b/output/1Y_P59_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.9583</v>
       </c>
       <c r="C2" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D2" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.2036</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="F3" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="H3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0205</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.9136</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E4" s="1">
-        <v>1655.6696</v>
+        <v>1652.3529</v>
       </c>
       <c r="F4" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="H4" s="1">
-        <v>21380.6549</v>
+        <v>21295.1931</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21380.6549</v>
+        <v>21295.1931</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.0797</v>
+        <v>12.104</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0582</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.4338</v>
       </c>
       <c r="C5" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D5" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E5" s="1">
-        <v>2430.047</v>
+        <v>2425.1802</v>
       </c>
       <c r="F5" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="H5" s="1">
-        <v>32644.7654</v>
+        <v>32514.149</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32644.7654</v>
+        <v>32514.149</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3454</v>
+        <v>12.3702</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0403</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>12.9657</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E6" s="1">
-        <v>3174.438</v>
+        <v>3168.0837</v>
       </c>
       <c r="F6" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="H6" s="1">
-        <v>41158.8109</v>
+        <v>40994.3689</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41158.8109</v>
+        <v>40994.3689</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.6007</v>
+        <v>12.6259</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>656.1127</v>
+        <v>654.7987000000001</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9343.8873</v>
+        <v>-9345.201300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0348</v>
+        <v>-0.0357</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.3568</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E7" s="1">
-        <v>3945.7037</v>
+        <v>3937.8059</v>
       </c>
       <c r="F7" s="1">
-        <v>755.6997</v>
+        <v>754.1725</v>
       </c>
       <c r="H7" s="1">
-        <v>52701.9757</v>
+        <v>52491.3459</v>
       </c>
       <c r="I7" s="1">
-        <v>656.1127</v>
+        <v>654.7987000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>53358.0883</v>
+        <v>53146.1446</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.672</v>
+        <v>12.6974</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10093.7304</v>
+        <v>-10093.5427</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.043</v>
+        <v>0.0422</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.2487</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E8" s="1">
-        <v>4701.4035</v>
+        <v>4691.9783</v>
       </c>
       <c r="F8" s="1">
-        <v>761.8656999999999</v>
+        <v>760.3307</v>
       </c>
       <c r="H8" s="1">
-        <v>62287.4843</v>
+        <v>62038.2759</v>
       </c>
       <c r="I8" s="1">
-        <v>562.3823</v>
+        <v>561.256</v>
       </c>
       <c r="J8" s="1">
-        <v>62849.8666</v>
+        <v>62599.5319</v>
       </c>
       <c r="K8" s="1">
-        <v>60093.7304</v>
+        <v>60093.5427</v>
       </c>
       <c r="L8" s="1">
-        <v>12.7821</v>
+        <v>12.8077</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10093.7304</v>
+        <v>-10093.5427</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.008</v>
+        <v>-0.008699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.3991</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E9" s="1">
-        <v>5463.2692</v>
+        <v>5452.3091</v>
       </c>
       <c r="F9" s="1">
-        <v>753.3141000000001</v>
+        <v>751.7963999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73202.8904</v>
+        <v>72909.9126</v>
       </c>
       <c r="I9" s="1">
-        <v>468.6519</v>
+        <v>467.7133</v>
       </c>
       <c r="J9" s="1">
-        <v>73671.5423</v>
+        <v>73377.626</v>
       </c>
       <c r="K9" s="1">
-        <v>70187.4608</v>
+        <v>70187.08530000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8472</v>
+        <v>12.8729</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1692.5053</v>
+        <v>1689.1122</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8401.2251</v>
+        <v>-8404.4305</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0113</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.5985</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E10" s="1">
-        <v>6216.5833</v>
+        <v>6204.1054</v>
       </c>
       <c r="F10" s="1">
-        <v>773.3836</v>
+        <v>771.7637</v>
       </c>
       <c r="H10" s="1">
-        <v>84536.2075</v>
+        <v>84197.776</v>
       </c>
       <c r="I10" s="1">
-        <v>2067.4268</v>
+        <v>2063.2829</v>
       </c>
       <c r="J10" s="1">
-        <v>86603.63430000001</v>
+        <v>86261.0589</v>
       </c>
       <c r="K10" s="1">
-        <v>80281.1912</v>
+        <v>80280.628</v>
       </c>
       <c r="L10" s="1">
-        <v>12.914</v>
+        <v>12.9399</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10516.8567</v>
+        <v>-10515.8207</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.035</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.6955</v>
       </c>
       <c r="C11" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D11" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E11" s="1">
-        <v>6989.9668</v>
+        <v>6975.8691</v>
       </c>
       <c r="F11" s="1">
-        <v>767.9059999999999</v>
+        <v>766.2973</v>
       </c>
       <c r="H11" s="1">
-        <v>95731.091</v>
+        <v>95346.8769</v>
       </c>
       <c r="I11" s="1">
-        <v>1550.5701</v>
+        <v>1547.4621</v>
       </c>
       <c r="J11" s="1">
-        <v>97281.6611</v>
+        <v>96894.3391</v>
       </c>
       <c r="K11" s="1">
-        <v>90798.04790000001</v>
+        <v>90796.44869999999</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9898</v>
+        <v>13.0158</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10516.8567</v>
+        <v>-10515.8207</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.007</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.3398</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E12" s="1">
-        <v>7757.8729</v>
+        <v>7742.1664</v>
       </c>
       <c r="F12" s="1">
-        <v>788.3819</v>
+        <v>786.7296</v>
       </c>
       <c r="H12" s="1">
-        <v>103488.4723</v>
+        <v>103072.2355</v>
       </c>
       <c r="I12" s="1">
-        <v>1033.7134</v>
+        <v>1031.6414</v>
       </c>
       <c r="J12" s="1">
-        <v>104522.1857</v>
+        <v>104103.8769</v>
       </c>
       <c r="K12" s="1">
-        <v>101314.9045</v>
+        <v>101312.2694</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0596</v>
+        <v>13.0858</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1887.291</v>
+        <v>1883.4847</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8629.5656</v>
+        <v>-8632.3361</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0257</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.8469</v>
       </c>
       <c r="C13" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D13" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E13" s="1">
-        <v>8546.2547</v>
+        <v>8528.896000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>965.5363</v>
+        <v>963.2324</v>
       </c>
       <c r="H13" s="1">
-        <v>109792.88</v>
+        <v>109350.6809</v>
       </c>
       <c r="I13" s="1">
-        <v>2404.1477</v>
+        <v>2399.3054</v>
       </c>
       <c r="J13" s="1">
-        <v>112197.0278</v>
+        <v>111749.9863</v>
       </c>
       <c r="K13" s="1">
-        <v>111831.7612</v>
+        <v>111828.0901</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0855</v>
+        <v>13.1117</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12404.1477</v>
+        <v>-12399.3054</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0203</v>
+        <v>-0.0206</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.129</v>
       </c>
       <c r="C14" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D14" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E14" s="1">
-        <v>9511.790999999999</v>
+        <v>9492.1284</v>
       </c>
       <c r="F14" s="1">
-        <v>-9511.790999999999</v>
+        <v>-9492.1284</v>
       </c>
       <c r="H14" s="1">
-        <v>124880.304</v>
+        <v>124372.5103</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>124880.304</v>
+        <v>124372.5103</v>
       </c>
       <c r="K14" s="1">
-        <v>124235.909</v>
+        <v>124227.3955</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0613</v>
+        <v>13.0874</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124880.304</v>
+        <v>124372.5103</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.022</v>
+        <v>0.0215</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>11.9583</v>
       </c>
       <c r="C2" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D2" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.2036</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="F3" s="1">
-        <v>802.6214</v>
+        <v>807.5797</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9794.870500000001</v>
+        <v>-9875.1649</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0205</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.9136</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E4" s="1">
-        <v>1638.8607</v>
+        <v>1642.144</v>
       </c>
       <c r="F4" s="1">
-        <v>684.2714999999999</v>
+        <v>685.6389</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21163.5911</v>
+        <v>21163.6232</v>
       </c>
       <c r="I4" s="1">
-        <v>205.1295</v>
+        <v>124.8351</v>
       </c>
       <c r="J4" s="1">
-        <v>21368.7206</v>
+        <v>21288.4583</v>
       </c>
       <c r="K4" s="1">
-        <v>19794.8705</v>
+        <v>19875.1649</v>
       </c>
       <c r="L4" s="1">
-        <v>12.0784</v>
+        <v>12.1032</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8836.4089</v>
+        <v>-8871.8243</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0576</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.4338</v>
       </c>
       <c r="C5" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D5" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E5" s="1">
-        <v>2323.1322</v>
+        <v>2327.7829</v>
       </c>
       <c r="F5" s="1">
-        <v>654.4319</v>
+        <v>655.7555</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31208.4934</v>
+        <v>31208.3521</v>
       </c>
       <c r="I5" s="1">
-        <v>1368.7206</v>
+        <v>1253.0108</v>
       </c>
       <c r="J5" s="1">
-        <v>32577.2139</v>
+        <v>32461.3628</v>
       </c>
       <c r="K5" s="1">
-        <v>28631.2794</v>
+        <v>28746.9892</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3244</v>
+        <v>12.3495</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8791.506600000001</v>
+        <v>-8826.927600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0385</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>12.9657</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E6" s="1">
-        <v>2977.5641</v>
+        <v>2983.5383</v>
       </c>
       <c r="F6" s="1">
-        <v>878.7646</v>
+        <v>880.509</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38606.2023</v>
+        <v>38606.3892</v>
       </c>
       <c r="I6" s="1">
-        <v>2577.2139</v>
+        <v>2426.0832</v>
       </c>
       <c r="J6" s="1">
-        <v>41183.4162</v>
+        <v>41032.4725</v>
       </c>
       <c r="K6" s="1">
-        <v>37422.7861</v>
+        <v>37573.9168</v>
       </c>
       <c r="L6" s="1">
-        <v>12.5683</v>
+        <v>12.5937</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>627.2457000000001</v>
+        <v>628.5014</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10766.552</v>
+        <v>-10810.8078</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0327</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.3568</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E7" s="1">
-        <v>3856.3286</v>
+        <v>3864.0474</v>
       </c>
       <c r="F7" s="1">
-        <v>635.7653</v>
+        <v>637.0442</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>51508.2101</v>
+        <v>51508.1377</v>
       </c>
       <c r="I7" s="1">
-        <v>1810.6619</v>
+        <v>1615.2754</v>
       </c>
       <c r="J7" s="1">
-        <v>53318.872</v>
+        <v>53123.4131</v>
       </c>
       <c r="K7" s="1">
-        <v>48816.5838</v>
+        <v>49013.226</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6588</v>
+        <v>12.6844</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8491.7899</v>
+        <v>-8525.9442</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0417</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.2487</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E8" s="1">
-        <v>4492.0939</v>
+        <v>4501.0915</v>
       </c>
       <c r="F8" s="1">
-        <v>791.4433</v>
+        <v>793.035</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59514.4046</v>
+        <v>59514.3322</v>
       </c>
       <c r="I8" s="1">
-        <v>3318.872</v>
+        <v>3089.3312</v>
       </c>
       <c r="J8" s="1">
-        <v>62833.2767</v>
+        <v>62603.6635</v>
       </c>
       <c r="K8" s="1">
-        <v>57308.3737</v>
+        <v>57539.1701</v>
       </c>
       <c r="L8" s="1">
-        <v>12.7576</v>
+        <v>12.7834</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10485.5954</v>
+        <v>-10527.6986</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0077</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.3991</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E9" s="1">
-        <v>5283.5373</v>
+        <v>5294.1265</v>
       </c>
       <c r="F9" s="1">
-        <v>687.013</v>
+        <v>688.3896</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70794.644</v>
+        <v>70794.64840000001</v>
       </c>
       <c r="I9" s="1">
-        <v>2833.2767</v>
+        <v>2561.6326</v>
       </c>
       <c r="J9" s="1">
-        <v>73627.9207</v>
+        <v>73356.281</v>
       </c>
       <c r="K9" s="1">
-        <v>67793.969</v>
+        <v>68066.8688</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8312</v>
+        <v>12.8571</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1617.1538</v>
+        <v>1620.3929</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7588.2022</v>
+        <v>-7621.8563</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0109</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.5985</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E10" s="1">
-        <v>5970.5503</v>
+        <v>5982.5161</v>
       </c>
       <c r="F10" s="1">
-        <v>647.8268</v>
+        <v>649.1257000000001</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81190.52770000001</v>
+        <v>81190.52069999999</v>
       </c>
       <c r="I10" s="1">
-        <v>5245.0745</v>
+        <v>4939.7763</v>
       </c>
       <c r="J10" s="1">
-        <v>86435.60219999999</v>
+        <v>86130.29700000001</v>
       </c>
       <c r="K10" s="1">
-        <v>76999.325</v>
+        <v>77309.11810000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8965</v>
+        <v>12.9225</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8809.472299999999</v>
+        <v>-8844.7917</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0336</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.6955</v>
       </c>
       <c r="C11" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D11" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E11" s="1">
-        <v>6618.377</v>
+        <v>6631.6418</v>
       </c>
       <c r="F11" s="1">
-        <v>683.2914</v>
+        <v>684.6641</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90641.9826</v>
+        <v>90641.94289999999</v>
       </c>
       <c r="I11" s="1">
-        <v>6435.6022</v>
+        <v>6094.9845</v>
       </c>
       <c r="J11" s="1">
-        <v>97077.5848</v>
+        <v>96736.9274</v>
       </c>
       <c r="K11" s="1">
-        <v>85808.79730000001</v>
+        <v>86153.90979999999</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9652</v>
+        <v>12.9913</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9358.017400000001</v>
+        <v>-9395.5767</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0067</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>13.3398</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E12" s="1">
-        <v>7301.6684</v>
+        <v>7316.3059</v>
       </c>
       <c r="F12" s="1">
-        <v>944.3323</v>
+        <v>946.2326</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97402.7965</v>
+        <v>97402.7114</v>
       </c>
       <c r="I12" s="1">
-        <v>7077.5848</v>
+        <v>6699.4079</v>
       </c>
       <c r="J12" s="1">
-        <v>104480.3813</v>
+        <v>104102.1193</v>
       </c>
       <c r="K12" s="1">
-        <v>95166.8147</v>
+        <v>95549.4865</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0336</v>
+        <v>13.0598</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1786.9618</v>
+        <v>1790.5433</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10810.2417</v>
+        <v>-10857.2741</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0243</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.8469</v>
       </c>
       <c r="C13" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D13" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E13" s="1">
-        <v>8246.000700000001</v>
+        <v>8262.538399999999</v>
       </c>
       <c r="F13" s="1">
-        <v>1094.7741</v>
+        <v>1096.9599</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>105935.5463</v>
+        <v>105935.6574</v>
       </c>
       <c r="I13" s="1">
-        <v>6267.3431</v>
+        <v>5842.1337</v>
       </c>
       <c r="J13" s="1">
-        <v>112202.8894</v>
+        <v>111777.7911</v>
       </c>
       <c r="K13" s="1">
-        <v>107764.0182</v>
+        <v>108197.3039</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0686</v>
+        <v>13.0949</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14064.4537</v>
+        <v>-14120.7264</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0199</v>
+        <v>-0.0204</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.129</v>
       </c>
       <c r="C14" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D14" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E14" s="1">
-        <v>9340.774799999999</v>
+        <v>9359.498299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9340.774799999999</v>
+        <v>-9359.498299999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122635.0326</v>
+        <v>122634.6988</v>
       </c>
       <c r="I14" s="1">
-        <v>2202.8894</v>
+        <v>1721.4074</v>
       </c>
       <c r="J14" s="1">
-        <v>124837.9219</v>
+        <v>124356.1061</v>
       </c>
       <c r="K14" s="1">
-        <v>121828.4719</v>
+        <v>122318.0302</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0427</v>
+        <v>13.0689</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122635.0326</v>
+        <v>122634.6988</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0216</v>
+        <v>0.0212</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>11.9583</v>
       </c>
       <c r="C2" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D2" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.2036</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="F3" s="1">
-        <v>806.7186</v>
+        <v>811.6849999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9844.870500000001</v>
+        <v>-9925.3657</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0205</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.9136</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E4" s="1">
-        <v>1642.9578</v>
+        <v>1646.2493</v>
       </c>
       <c r="F4" s="1">
-        <v>691.8094</v>
+        <v>693.1917999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21216.5</v>
+        <v>21216.5323</v>
       </c>
       <c r="I4" s="1">
-        <v>155.1295</v>
+        <v>74.6343</v>
       </c>
       <c r="J4" s="1">
-        <v>21371.6295</v>
+        <v>21291.1666</v>
       </c>
       <c r="K4" s="1">
-        <v>19844.8705</v>
+        <v>19925.3657</v>
       </c>
       <c r="L4" s="1">
-        <v>12.0787</v>
+        <v>12.1035</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8933.75</v>
+        <v>-8969.555700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0577</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.4338</v>
       </c>
       <c r="C5" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D5" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E5" s="1">
-        <v>2334.7672</v>
+        <v>2339.4412</v>
       </c>
       <c r="F5" s="1">
-        <v>665.2030999999999</v>
+        <v>666.5484</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31364.7959</v>
+        <v>31364.6539</v>
       </c>
       <c r="I5" s="1">
-        <v>1221.3795</v>
+        <v>1105.0786</v>
       </c>
       <c r="J5" s="1">
-        <v>32586.1754</v>
+        <v>32469.7325</v>
       </c>
       <c r="K5" s="1">
-        <v>28778.6205</v>
+        <v>28894.9214</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3261</v>
+        <v>12.3512</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8936.2053</v>
+        <v>-8972.2076</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0387</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>12.9657</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E6" s="1">
-        <v>2999.9703</v>
+        <v>3005.9895</v>
       </c>
       <c r="F6" s="1">
-        <v>895.1149</v>
+        <v>896.8920000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38896.7151</v>
+        <v>38896.9035</v>
       </c>
       <c r="I6" s="1">
-        <v>2285.1742</v>
+        <v>2132.8709</v>
       </c>
       <c r="J6" s="1">
-        <v>41181.8893</v>
+        <v>41029.7745</v>
       </c>
       <c r="K6" s="1">
-        <v>37714.8258</v>
+        <v>37867.1291</v>
       </c>
       <c r="L6" s="1">
-        <v>12.5717</v>
+        <v>12.5972</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>630.3871</v>
+        <v>631.6491</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10975.404</v>
+        <v>-11020.5023</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.033</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.3568</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E7" s="1">
-        <v>3895.0852</v>
+        <v>3902.8815</v>
       </c>
       <c r="F7" s="1">
-        <v>653.5356</v>
+        <v>654.8501</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52025.8741</v>
+        <v>52025.8009</v>
       </c>
       <c r="I7" s="1">
-        <v>1309.7702</v>
+        <v>1112.3686</v>
       </c>
       <c r="J7" s="1">
-        <v>53335.6443</v>
+        <v>53138.1696</v>
       </c>
       <c r="K7" s="1">
-        <v>49320.6169</v>
+        <v>49519.2805</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6623</v>
+        <v>12.6879</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8729.144700000001</v>
+        <v>-8764.252399999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0421</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.2487</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E8" s="1">
-        <v>4548.6208</v>
+        <v>4557.7317</v>
       </c>
       <c r="F8" s="1">
-        <v>814.8332</v>
+        <v>816.4719</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60263.3129</v>
+        <v>60263.2395</v>
       </c>
       <c r="I8" s="1">
-        <v>2580.6255</v>
+        <v>2348.1163</v>
       </c>
       <c r="J8" s="1">
-        <v>62843.9384</v>
+        <v>62611.3558</v>
       </c>
       <c r="K8" s="1">
-        <v>58049.7616</v>
+        <v>58283.5328</v>
       </c>
       <c r="L8" s="1">
-        <v>12.7621</v>
+        <v>12.7878</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10795.481</v>
+        <v>-10838.8273</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0078</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.3991</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E9" s="1">
-        <v>5363.4541</v>
+        <v>5374.2035</v>
       </c>
       <c r="F9" s="1">
-        <v>712.6322</v>
+        <v>714.0601</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71865.4574</v>
+        <v>71865.4618</v>
       </c>
       <c r="I9" s="1">
-        <v>1785.1445</v>
+        <v>1509.2889</v>
       </c>
       <c r="J9" s="1">
-        <v>73650.60189999999</v>
+        <v>73374.75079999999</v>
       </c>
       <c r="K9" s="1">
-        <v>68845.2426</v>
+        <v>69122.3602</v>
       </c>
       <c r="L9" s="1">
-        <v>12.836</v>
+        <v>12.8619</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1637.5035</v>
+        <v>1640.7834</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7911.127</v>
+        <v>-7946.1162</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0111</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.5985</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E10" s="1">
-        <v>6076.0863</v>
+        <v>6088.2636</v>
       </c>
       <c r="F10" s="1">
-        <v>676.2142</v>
+        <v>677.5700000000001</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82625.65949999999</v>
+        <v>82625.6523</v>
       </c>
       <c r="I10" s="1">
-        <v>3874.0175</v>
+        <v>3563.1727</v>
       </c>
       <c r="J10" s="1">
-        <v>86499.677</v>
+        <v>86188.825</v>
       </c>
       <c r="K10" s="1">
-        <v>78393.8731</v>
+        <v>78709.2598</v>
       </c>
       <c r="L10" s="1">
-        <v>12.902</v>
+        <v>12.928</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9195.498799999999</v>
+        <v>-9232.3658</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0341</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.6955</v>
       </c>
       <c r="C11" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D11" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E11" s="1">
-        <v>6752.3005</v>
+        <v>6765.8337</v>
       </c>
       <c r="F11" s="1">
-        <v>715.8653</v>
+        <v>717.3033</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92476.1314</v>
+        <v>92476.091</v>
       </c>
       <c r="I11" s="1">
-        <v>4678.5187</v>
+        <v>4330.8069</v>
       </c>
       <c r="J11" s="1">
-        <v>97154.6502</v>
+        <v>96806.8979</v>
       </c>
       <c r="K11" s="1">
-        <v>87589.3719</v>
+        <v>87941.6256</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9718</v>
+        <v>12.9979</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9804.132600000001</v>
+        <v>-9843.481299999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0068</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>13.3398</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E12" s="1">
-        <v>7468.1658</v>
+        <v>7483.1369</v>
       </c>
       <c r="F12" s="1">
-        <v>987.1083</v>
+        <v>989.0946</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99623.83749999999</v>
+        <v>99623.75049999999</v>
       </c>
       <c r="I12" s="1">
-        <v>4874.3861</v>
+        <v>4487.3256</v>
       </c>
       <c r="J12" s="1">
-        <v>104498.2236</v>
+        <v>104111.0761</v>
       </c>
       <c r="K12" s="1">
-        <v>97393.5046</v>
+        <v>97785.1069</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0412</v>
+        <v>13.0674</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1823.1211</v>
+        <v>1826.7751</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11344.7067</v>
+        <v>-11393.9575</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0248</v>
+        <v>-0.0252</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.8469</v>
       </c>
       <c r="C13" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D13" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E13" s="1">
-        <v>8455.274100000001</v>
+        <v>8472.2315</v>
       </c>
       <c r="F13" s="1">
-        <v>1053.1474</v>
+        <v>1017.1502</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>108624.0608</v>
+        <v>108624.1747</v>
       </c>
       <c r="I13" s="1">
-        <v>3529.6793</v>
+        <v>3093.3681</v>
       </c>
       <c r="J13" s="1">
-        <v>112153.7401</v>
+        <v>111717.5428</v>
       </c>
       <c r="K13" s="1">
-        <v>110561.3325</v>
+        <v>111005.8395</v>
       </c>
       <c r="L13" s="1">
-        <v>13.076</v>
+        <v>13.1023</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13529.6793</v>
+        <v>-13093.3681</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0205</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.129</v>
       </c>
       <c r="C14" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D14" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E14" s="1">
-        <v>9508.4215</v>
+        <v>9489.381799999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9508.4215</v>
+        <v>-9489.381799999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124836.0658</v>
+        <v>124336.5223</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>124836.0658</v>
+        <v>124336.5223</v>
       </c>
       <c r="K14" s="1">
-        <v>124091.0118</v>
+        <v>124099.2076</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0506</v>
+        <v>13.0777</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124836.0658</v>
+        <v>124336.5223</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.022</v>
+        <v>0.0215</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>11.9583</v>
       </c>
       <c r="C2" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D2" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.2036</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="F3" s="1">
-        <v>810.8157</v>
+        <v>815.7904</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9894.870500000001</v>
+        <v>-9975.5664</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0205</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.9136</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E4" s="1">
-        <v>1647.055</v>
+        <v>1650.3547</v>
       </c>
       <c r="F4" s="1">
-        <v>699.386</v>
+        <v>700.7836</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21269.409</v>
+        <v>21269.4413</v>
       </c>
       <c r="I4" s="1">
-        <v>105.1295</v>
+        <v>24.4336</v>
       </c>
       <c r="J4" s="1">
-        <v>21374.5385</v>
+        <v>21293.8749</v>
       </c>
       <c r="K4" s="1">
-        <v>19894.8705</v>
+        <v>19975.5664</v>
       </c>
       <c r="L4" s="1">
-        <v>12.0791</v>
+        <v>12.1038</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9031.591</v>
+        <v>-9067.789199999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0579</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.4338</v>
       </c>
       <c r="C5" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D5" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E5" s="1">
-        <v>2346.441</v>
+        <v>2351.1383</v>
       </c>
       <c r="F5" s="1">
-        <v>676.0851</v>
+        <v>677.4521999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31521.6186</v>
+        <v>31521.4759</v>
       </c>
       <c r="I5" s="1">
-        <v>1073.5385</v>
+        <v>956.6444</v>
       </c>
       <c r="J5" s="1">
-        <v>32595.1571</v>
+        <v>32478.1203</v>
       </c>
       <c r="K5" s="1">
-        <v>28926.4615</v>
+        <v>29043.3556</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3278</v>
+        <v>12.3529</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9082.3914</v>
+        <v>-9118.981</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0389</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>12.9657</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E6" s="1">
-        <v>3022.526</v>
+        <v>3028.5905</v>
       </c>
       <c r="F6" s="1">
-        <v>911.7043</v>
+        <v>913.5145</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39189.1656</v>
+        <v>39189.3554</v>
       </c>
       <c r="I6" s="1">
-        <v>1991.1471</v>
+        <v>1837.6634</v>
       </c>
       <c r="J6" s="1">
-        <v>41180.3127</v>
+        <v>41027.0187</v>
       </c>
       <c r="K6" s="1">
-        <v>38008.8529</v>
+        <v>38162.3366</v>
       </c>
       <c r="L6" s="1">
-        <v>12.5752</v>
+        <v>12.6007</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>633.5391</v>
+        <v>634.8073000000001</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11187.3455</v>
+        <v>-11233.2988</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0332</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.3568</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E7" s="1">
-        <v>3934.2303</v>
+        <v>3942.105</v>
       </c>
       <c r="F7" s="1">
-        <v>671.6746000000001</v>
+        <v>673.0255</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>52548.7276</v>
+        <v>52548.6537</v>
       </c>
       <c r="I7" s="1">
-        <v>803.8016</v>
+        <v>604.3646</v>
       </c>
       <c r="J7" s="1">
-        <v>53352.5292</v>
+        <v>53153.0182</v>
       </c>
       <c r="K7" s="1">
-        <v>49829.7374</v>
+        <v>50030.4428</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6657</v>
+        <v>12.6913</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8971.423000000001</v>
+        <v>-9007.5038</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0424</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.2487</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E8" s="1">
-        <v>4605.9049</v>
+        <v>4615.1305</v>
       </c>
       <c r="F8" s="1">
-        <v>838.8068</v>
+        <v>840.4936</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61022.2523</v>
+        <v>61022.178</v>
       </c>
       <c r="I8" s="1">
-        <v>1832.3786</v>
+        <v>1596.8608</v>
       </c>
       <c r="J8" s="1">
-        <v>62854.6309</v>
+        <v>62619.0388</v>
       </c>
       <c r="K8" s="1">
-        <v>58801.1604</v>
+        <v>59037.9466</v>
       </c>
       <c r="L8" s="1">
-        <v>12.7665</v>
+        <v>12.7923</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11113.0998</v>
+        <v>-11157.7202</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.007900000000000001</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.3991</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E9" s="1">
-        <v>5444.7117</v>
+        <v>5455.624</v>
       </c>
       <c r="F9" s="1">
-        <v>739.0399</v>
+        <v>740.5207</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72954.23669999999</v>
+        <v>72954.24129999999</v>
       </c>
       <c r="I9" s="1">
-        <v>719.2788</v>
+        <v>439.1405</v>
       </c>
       <c r="J9" s="1">
-        <v>73673.51549999999</v>
+        <v>73393.3818</v>
       </c>
       <c r="K9" s="1">
-        <v>69914.26029999999</v>
+        <v>70195.66680000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8408</v>
+        <v>12.8667</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1658.1258</v>
+        <v>1661.447</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8244.3431</v>
+        <v>-8280.7093</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0112</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.5985</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E10" s="1">
-        <v>6183.7516</v>
+        <v>6196.1447</v>
       </c>
       <c r="F10" s="1">
-        <v>705.6313</v>
+        <v>707.0461</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>84089.7457</v>
+        <v>84089.7384</v>
       </c>
       <c r="I10" s="1">
-        <v>2474.9357</v>
+        <v>2158.4312</v>
       </c>
       <c r="J10" s="1">
-        <v>86564.6814</v>
+        <v>86248.1697</v>
       </c>
       <c r="K10" s="1">
-        <v>79816.7291</v>
+        <v>80137.82309999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9075</v>
+        <v>12.9335</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9595.527</v>
+        <v>-9633.997600000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0346</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.6955</v>
       </c>
       <c r="C11" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D11" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E11" s="1">
-        <v>6889.3828</v>
+        <v>6903.1908</v>
       </c>
       <c r="F11" s="1">
-        <v>749.7779</v>
+        <v>751.2839</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94353.5428</v>
+        <v>94353.5015</v>
       </c>
       <c r="I11" s="1">
-        <v>2879.4087</v>
+        <v>2524.4337</v>
       </c>
       <c r="J11" s="1">
-        <v>97232.9515</v>
+        <v>96877.93520000001</v>
       </c>
       <c r="K11" s="1">
-        <v>89412.2561</v>
+        <v>89771.82060000001</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9783</v>
+        <v>13.0044</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10268.5826</v>
+        <v>-10309.7942</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0069</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>13.3398</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E12" s="1">
-        <v>7639.1607</v>
+        <v>7654.4747</v>
       </c>
       <c r="F12" s="1">
-        <v>945.3535000000001</v>
+        <v>913.8248</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101904.8759</v>
+        <v>101904.7869</v>
       </c>
       <c r="I12" s="1">
-        <v>2610.8261</v>
+        <v>2214.6394</v>
       </c>
       <c r="J12" s="1">
-        <v>104515.702</v>
+        <v>104119.4263</v>
       </c>
       <c r="K12" s="1">
-        <v>99680.83869999999</v>
+        <v>100081.6149</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0487</v>
+        <v>13.0749</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1860.1334</v>
+        <v>1863.8615</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10750.6927</v>
+        <v>-10350.7779</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0253</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.8469</v>
       </c>
       <c r="C13" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D13" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E13" s="1">
-        <v>8584.5142</v>
+        <v>8568.299499999999</v>
       </c>
       <c r="F13" s="1">
-        <v>923.1903</v>
+        <v>921.6368</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>110284.395</v>
+        <v>109855.8816</v>
       </c>
       <c r="I13" s="1">
-        <v>1860.1334</v>
+        <v>1863.8615</v>
       </c>
       <c r="J13" s="1">
-        <v>112144.5284</v>
+        <v>111719.7431</v>
       </c>
       <c r="K13" s="1">
-        <v>112291.6648</v>
+        <v>112296.2543</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0807</v>
+        <v>13.106</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11860.1334</v>
+        <v>-11863.8615</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0207</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.129</v>
       </c>
       <c r="C14" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D14" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E14" s="1">
-        <v>9507.7045</v>
+        <v>9489.936299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9507.7045</v>
+        <v>-9489.936299999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124826.6518</v>
+        <v>124343.788</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>124826.6518</v>
+        <v>124343.788</v>
       </c>
       <c r="K14" s="1">
-        <v>124151.7982</v>
+        <v>124160.1158</v>
       </c>
       <c r="L14" s="1">
-        <v>13.058</v>
+        <v>13.0833</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124826.6518</v>
+        <v>124343.788</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.022</v>
+        <v>0.0216</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.9583</v>
       </c>
       <c r="C2" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D2" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.2036</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="F3" s="1">
-        <v>814.9129</v>
+        <v>819.8957</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10205.1295</v>
+        <v>10164.3257</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9944.870500000001</v>
+        <v>-10025.7672</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0205</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.9136</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E4" s="1">
-        <v>1651.1521</v>
+        <v>1654.4601</v>
       </c>
       <c r="F4" s="1">
-        <v>707.0013</v>
+        <v>708.4141</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21322.318</v>
+        <v>21322.3504</v>
       </c>
       <c r="I4" s="1">
-        <v>55.1295</v>
+        <v>-25.7672</v>
       </c>
       <c r="J4" s="1">
-        <v>21377.4475</v>
+        <v>21296.5832</v>
       </c>
       <c r="K4" s="1">
-        <v>19944.8705</v>
+        <v>20025.7672</v>
       </c>
       <c r="L4" s="1">
-        <v>12.0794</v>
+        <v>12.1041</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9129.932000000001</v>
+        <v>-9166.524600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.058</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.4338</v>
       </c>
       <c r="C5" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D5" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E5" s="1">
-        <v>2358.1534</v>
+        <v>2362.8742</v>
       </c>
       <c r="F5" s="1">
-        <v>687.0783</v>
+        <v>688.4675999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31678.9614</v>
+        <v>31678.818</v>
       </c>
       <c r="I5" s="1">
-        <v>925.1975</v>
+        <v>807.7082</v>
       </c>
       <c r="J5" s="1">
-        <v>32604.1589</v>
+        <v>32486.5262</v>
       </c>
       <c r="K5" s="1">
-        <v>29074.8025</v>
+        <v>29192.2918</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3295</v>
+        <v>12.3546</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9230.0723</v>
+        <v>-9267.255300000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0391</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>12.9657</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E6" s="1">
-        <v>3045.2317</v>
+        <v>3051.3418</v>
       </c>
       <c r="F6" s="1">
-        <v>902.0049</v>
+        <v>888.2943</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39483.5608</v>
+        <v>39483.752</v>
       </c>
       <c r="I6" s="1">
-        <v>1695.1252</v>
+        <v>1540.4529</v>
       </c>
       <c r="J6" s="1">
-        <v>41178.6859</v>
+        <v>41024.2049</v>
       </c>
       <c r="K6" s="1">
-        <v>38304.8748</v>
+        <v>38459.5471</v>
       </c>
       <c r="L6" s="1">
-        <v>12.5786</v>
+        <v>12.6041</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>636.7014</v>
+        <v>637.976</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11058.4237</v>
+        <v>-10902.4769</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0335</v>
+        <v>-0.0344</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.3568</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E7" s="1">
-        <v>3947.2366</v>
+        <v>3939.636</v>
       </c>
       <c r="F7" s="1">
-        <v>716.718</v>
+        <v>733.6604</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>52722.4502</v>
+        <v>52515.7424</v>
       </c>
       <c r="I7" s="1">
-        <v>636.7014</v>
+        <v>637.976</v>
       </c>
       <c r="J7" s="1">
-        <v>53359.1516</v>
+        <v>53153.7184</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6671</v>
+        <v>12.6915</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9573.0591</v>
+        <v>-9819.0177</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0426</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.2487</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E8" s="1">
-        <v>4663.9546</v>
+        <v>4673.2965</v>
       </c>
       <c r="F8" s="1">
-        <v>835.0738</v>
+        <v>814.9752</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61791.3358</v>
+        <v>61791.2606</v>
       </c>
       <c r="I8" s="1">
-        <v>1063.6423</v>
+        <v>818.9583</v>
       </c>
       <c r="J8" s="1">
-        <v>62854.9781</v>
+        <v>62610.2189</v>
       </c>
       <c r="K8" s="1">
-        <v>59573.0591</v>
+        <v>59819.0177</v>
       </c>
       <c r="L8" s="1">
-        <v>12.7731</v>
+        <v>12.8002</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11063.6423</v>
+        <v>-10818.9583</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.008</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.3991</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E9" s="1">
-        <v>5499.0284</v>
+        <v>5488.2716</v>
       </c>
       <c r="F9" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73682.03200000001</v>
+        <v>73390.81479999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>73682.03200000001</v>
+        <v>73390.81479999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70636.70140000001</v>
+        <v>70637.976</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8453</v>
+        <v>12.8707</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1679.0237</v>
+        <v>1682.3867</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8320.9763</v>
+        <v>-8317.613300000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0114</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.5985</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E10" s="1">
-        <v>6245.3472</v>
+        <v>6233.1007</v>
       </c>
       <c r="F10" s="1">
-        <v>784.3484999999999</v>
+        <v>810.6842</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84927.3542</v>
+        <v>84591.27899999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1679.0237</v>
+        <v>1682.3867</v>
       </c>
       <c r="J10" s="1">
-        <v>86606.37790000001</v>
+        <v>86273.6657</v>
       </c>
       <c r="K10" s="1">
-        <v>80636.70140000001</v>
+        <v>80637.976</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9115</v>
+        <v>12.9371</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10665.9627</v>
+        <v>-11046.1392</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0349</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.6955</v>
       </c>
       <c r="C11" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D11" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E11" s="1">
-        <v>7029.6957</v>
+        <v>7043.7848</v>
       </c>
       <c r="F11" s="1">
-        <v>785.0768</v>
+        <v>775.0729</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96275.1974</v>
+        <v>96275.1553</v>
       </c>
       <c r="I11" s="1">
-        <v>1013.061</v>
+        <v>636.2476</v>
       </c>
       <c r="J11" s="1">
-        <v>97288.25840000001</v>
+        <v>96911.4029</v>
       </c>
       <c r="K11" s="1">
-        <v>91302.66409999999</v>
+        <v>91684.1152</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9881</v>
+        <v>13.0163</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10752.0193</v>
+        <v>-10636.2476</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0071</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>13.3398</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E12" s="1">
-        <v>7814.7725</v>
+        <v>7818.8577</v>
       </c>
       <c r="F12" s="1">
-        <v>769.2051</v>
+        <v>748.139</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104247.5021</v>
+        <v>104093.2344</v>
       </c>
       <c r="I12" s="1">
-        <v>261.0417</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104508.5438</v>
+        <v>104093.2344</v>
       </c>
       <c r="K12" s="1">
-        <v>102054.6834</v>
+        <v>102320.3628</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0592</v>
+        <v>13.0864</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1898.0178</v>
+        <v>1901.8219</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8363.0239</v>
+        <v>-8098.1781</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0259</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.8469</v>
       </c>
       <c r="C13" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D13" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E13" s="1">
-        <v>8583.9776</v>
+        <v>8566.9967</v>
       </c>
       <c r="F13" s="1">
-        <v>926.1392</v>
+        <v>924.5857</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>110277.5013</v>
+        <v>109839.1781</v>
       </c>
       <c r="I13" s="1">
-        <v>1898.0178</v>
+        <v>1901.8219</v>
       </c>
       <c r="J13" s="1">
-        <v>112175.5191</v>
+        <v>111741</v>
       </c>
       <c r="K13" s="1">
-        <v>112315.7251</v>
+        <v>112320.3628</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0843</v>
+        <v>13.1108</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11898.0178</v>
+        <v>-11901.8219</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0204</v>
+        <v>-0.0206</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.129</v>
       </c>
       <c r="C14" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D14" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E14" s="1">
-        <v>9510.1168</v>
+        <v>9491.582399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9510.1168</v>
+        <v>-9491.582399999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124858.323</v>
+        <v>124365.3567</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>124858.323</v>
+        <v>124365.3567</v>
       </c>
       <c r="K14" s="1">
-        <v>124213.7429</v>
+        <v>124222.1847</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0612</v>
+        <v>13.0876</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124858.323</v>
+        <v>124365.3567</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.022</v>
+        <v>0.0216</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0613</v>
+        <v>13.0874</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0427</v>
+        <v>13.0689</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0506</v>
+        <v>13.0777</v>
       </c>
       <c r="F3" s="1">
-        <v>13.058</v>
+        <v>13.0833</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0612</v>
+        <v>13.0876</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.09859999999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1484</v>
+        <v>0.1359</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1465</v>
+        <v>0.1348</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1469</v>
+        <v>0.135</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1473</v>
+        <v>0.1355</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1478</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.09859999999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0984</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="D5" s="3">
+        <v>0.09420000000000001</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.0951</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.096</v>
-      </c>
       <c r="F5" s="3">
-        <v>0.0968</v>
+        <v>0.0958</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0973</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.7936</v>
       </c>
       <c r="C6" s="4">
-        <v>1.3014</v>
+        <v>1.1893</v>
       </c>
       <c r="D6" s="4">
-        <v>1.3268</v>
+        <v>1.2155</v>
       </c>
       <c r="E6" s="4">
-        <v>1.3186</v>
+        <v>1.2059</v>
       </c>
       <c r="F6" s="4">
-        <v>1.3121</v>
+        <v>1.2017</v>
       </c>
       <c r="G6" s="4">
-        <v>1.3111</v>
+        <v>1.1998</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.07679999999999999</v>
+        <v>0.0687</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0793</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0779</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0767</v>
+        <v>0.0688</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0765</v>
+        <v>0.06859999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4235.909</v>
+        <v>4227.3955</v>
       </c>
       <c r="D8" s="1">
-        <v>4031.3613</v>
+        <v>4039.4376</v>
       </c>
       <c r="E8" s="1">
-        <v>4091.0118</v>
+        <v>4099.2076</v>
       </c>
       <c r="F8" s="1">
-        <v>4151.7982</v>
+        <v>4160.1158</v>
       </c>
       <c r="G8" s="1">
-        <v>4213.7429</v>
+        <v>4222.1847</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P59_KFSDIV.xlsx
+++ b/output/1Y_P59_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5227.7358</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0011</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0244</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0014</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
